--- a/Abgabe/Aufwandserfassung.xlsx
+++ b/Abgabe/Aufwandserfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Aufwandstabelle für Sebastian Röhling</t>
   </si>
@@ -74,12 +74,39 @@
   </si>
   <si>
     <t>in Stunden</t>
+  </si>
+  <si>
+    <t>Canvas-Minispiel</t>
+  </si>
+  <si>
+    <t>PHP-Registrierung</t>
+  </si>
+  <si>
+    <t>MySQL Datenbank</t>
+  </si>
+  <si>
+    <t>Websockets</t>
+  </si>
+  <si>
+    <t>Serverseitige Bildgenerierung</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Korrektur Ausarbeitung</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>Einrichten Entwicklungsumgebung</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,7 +131,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +148,12 @@
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -177,18 +210,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -220,8 +254,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="F4:G10" totalsRowShown="0">
-  <autoFilter ref="F4:G10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabelle24" displayName="Tabelle24" ref="F4:G15" totalsRowShown="0">
+  <autoFilter ref="F4:G15"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Aufwand"/>
     <tableColumn id="2" name="Zeitdauer in Minuten (inkl. Einarbeitung)"/>
@@ -231,7 +265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -306,6 +340,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -341,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,15 +588,15 @@
   <dimension ref="B2:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="28.5703125" customWidth="1"/>
+    <col min="6" max="6" width="35.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -536,10 +604,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -562,6 +630,12 @@
       <c r="C5">
         <v>90</v>
       </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>90</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -570,6 +644,12 @@
       <c r="C6">
         <v>60</v>
       </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -578,6 +658,12 @@
       <c r="C7">
         <v>120</v>
       </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>90</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -586,6 +672,12 @@
       <c r="C8">
         <v>90</v>
       </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -594,6 +686,12 @@
       <c r="C9">
         <v>160</v>
       </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9">
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -602,6 +700,12 @@
       <c r="C10">
         <v>100</v>
       </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -610,6 +714,12 @@
       <c r="C11">
         <v>110</v>
       </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11">
+        <v>900</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -618,6 +728,12 @@
       <c r="C12">
         <v>180</v>
       </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -626,6 +742,12 @@
       <c r="C13">
         <v>120</v>
       </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13">
+        <v>120</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -634,6 +756,12 @@
       <c r="C14">
         <v>60</v>
       </c>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14">
+        <v>120</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -651,7 +779,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>15</v>
       </c>
@@ -659,7 +787,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>17</v>
       </c>
@@ -667,22 +795,36 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <f>SUM(C5:C18)</f>
         <v>1995</v>
       </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
+        <f>SUM(G5:G19)</f>
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <f>C20/60</f>
         <v>33.25</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
+        <f>G20/60</f>
+        <v>32.75</v>
       </c>
     </row>
   </sheetData>

--- a/Abgabe/Aufwandserfassung.xlsx
+++ b/Abgabe/Aufwandserfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Aufwandstabelle für Sebastian Röhling</t>
   </si>
@@ -101,23 +101,19 @@
   </si>
   <si>
     <t>Einrichten Entwicklungsumgebung</t>
+  </si>
+  <si>
+    <t>Erstellung Präsentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,8 +126,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,18 +143,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,27 +204,26 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
-    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -243,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B4:C18" totalsRowShown="0">
-  <autoFilter ref="B4:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="B4:C19" totalsRowShown="0">
+  <autoFilter ref="B4:C19"/>
   <tableColumns count="2">
     <tableColumn id="1" name="Aufwand"/>
     <tableColumn id="2" name="Zeitdauer in Minuten (inkl. Einarbeitung)"/>
@@ -265,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -340,23 +336,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -392,23 +371,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -585,13 +547,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G21"/>
+  <dimension ref="B2:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" bestFit="1" customWidth="1"/>
@@ -600,14 +562,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -770,6 +732,12 @@
       <c r="C15">
         <v>20</v>
       </c>
+      <c r="F15" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15">
+        <v>80</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -792,39 +760,47 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="1">
-        <f>SUM(C5:C18)</f>
-        <v>1995</v>
-      </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
+      <c r="C21" s="4">
+        <f>SUM(C5:C19)</f>
+        <v>2345</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="4">
         <f>SUM(G5:G19)</f>
-        <v>1965</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="1">
-        <f>C20/60</f>
-        <v>33.25</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5">
-        <f>G20/60</f>
-        <v>32.75</v>
+      <c r="C22" s="4">
+        <f>C21/60</f>
+        <v>39.083333333333336</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="4">
+        <f>G21/60</f>
+        <v>34.083333333333336</v>
       </c>
     </row>
   </sheetData>
